--- a/attendance.xlsx
+++ b/attendance.xlsx
@@ -531,7 +531,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>15:45:17</t>
+          <t>16:33:29</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -541,7 +541,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>15:45:26</t>
+          <t>16:33:36</t>
         </is>
       </c>
     </row>

--- a/attendance.xlsx
+++ b/attendance.xlsx
@@ -531,7 +531,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>16:33:29</t>
+          <t>19:58:53</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -541,7 +541,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>16:33:36</t>
+          <t>19:58:58</t>
         </is>
       </c>
     </row>

--- a/attendance.xlsx
+++ b/attendance.xlsx
@@ -531,7 +531,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>19:58:53</t>
+          <t>20:59:59</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -541,7 +541,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>19:58:58</t>
+          <t>21:00:04</t>
         </is>
       </c>
     </row>

--- a/attendance.xlsx
+++ b/attendance.xlsx
@@ -526,22 +526,22 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>2023-07-23</t>
+          <t>2023-07-24</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>20:59:59</t>
+          <t>01:13:47</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2023-07-23</t>
+          <t>2023-07-24</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>21:00:04</t>
+          <t>01:14:11</t>
         </is>
       </c>
     </row>

--- a/attendance.xlsx
+++ b/attendance.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -464,6 +464,11 @@
           <t>departure_time</t>
         </is>
       </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>time_difference</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -480,6 +485,7 @@
       <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -496,6 +502,7 @@
       <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -512,6 +519,7 @@
       <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -526,22 +534,27 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>2023-07-24</t>
+          <t>2023-07-25</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>01:13:47</t>
+          <t>16:44:47</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2023-07-24</t>
+          <t>2023-07-25</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>01:14:11</t>
+          <t>16:44:56</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0:00:09</t>
         </is>
       </c>
     </row>

--- a/attendance.xlsx
+++ b/attendance.xlsx
@@ -539,7 +539,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>16:44:47</t>
+          <t>17:38:31</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -549,12 +549,12 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>16:44:56</t>
+          <t>17:38:35</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0:00:09</t>
+          <t>0:00:04</t>
         </is>
       </c>
     </row>

--- a/attendance.xlsx
+++ b/attendance.xlsx
@@ -539,7 +539,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>17:38:31</t>
+          <t>17:45:56</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -549,7 +549,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>17:38:35</t>
+          <t>17:46:00</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">

--- a/attendance.xlsx
+++ b/attendance.xlsx
@@ -534,27 +534,27 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>2023-07-25</t>
+          <t>2023-07-26</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>17:45:56</t>
+          <t>14:31:14</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2023-07-25</t>
+          <t>2023-07-26</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>17:46:00</t>
+          <t>14:31:22</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0:00:04</t>
+          <t>0:00:08</t>
         </is>
       </c>
     </row>

--- a/attendance.xlsx
+++ b/attendance.xlsx
@@ -529,7 +529,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>departed</t>
+          <t>absent</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -539,24 +539,12 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>14:31:14</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>2023-07-26</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>14:31:22</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0:00:08</t>
-        </is>
-      </c>
+          <t>15:35:13</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
